--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\nucleide_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1942937_live_warwick_ac_uk/Documents/Uni/Year 3/Dark Matter Project/analysis/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3616603B-ECFE-4282-88C7-44CCB3B1433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3616603B-ECFE-4282-88C7-44CCB3B1433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701EC701-7208-4FC7-B6AD-1F7DFBA9B110}"/>
   <bookViews>
-    <workbookView xWindow="7690" yWindow="-330" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{6846B3F1-336A-4DF4-8B36-074D32D194C8}"/>
+    <workbookView xWindow="5580" yWindow="4510" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{6846B3F1-336A-4DF4-8B36-074D32D194C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Energy [keV]</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>NR decay to Be</t>
+  </si>
+  <si>
+    <t>S-35</t>
   </si>
 </sst>
 </file>
@@ -302,15 +305,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,12 +316,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -335,6 +323,21 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -23937,7 +23940,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23951,344 +23954,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="18">
         <v>565</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>119.881</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="16">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="22">
-        <f>C3*D3</f>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F11" si="0">C3*D3</f>
         <v>7.5644911000000006</v>
       </c>
-      <c r="G3" s="22">
-        <f>C3*E3</f>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G11" si="1">C3*E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="18">
         <v>19</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>383.30900000000003</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="16">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="22">
-        <f>C4*D4</f>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
         <v>383.30900000000003</v>
       </c>
-      <c r="G4" s="22">
-        <f>C4*E4</f>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+      <c r="A5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="18">
+        <v>167</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1920.61</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.37084</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" s="23">
-        <v>167</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1920.61</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.37084</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>712.23901239999998</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
-        <f>C5*D5</f>
-        <v>712.23901239999998</v>
-      </c>
-      <c r="G5" s="22">
-        <f>C5*E5</f>
+      <c r="H5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18">
+        <v>249</v>
+      </c>
+      <c r="C6" s="15">
+        <v>540.29200000000003</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E6" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>126.96862</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="23">
-        <v>249</v>
-      </c>
-      <c r="C6" s="20">
-        <v>540.29200000000003</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E6" s="21">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="18">
+        <v>224</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="F6" s="22">
-        <f>C6*D6</f>
-        <v>126.96862</v>
-      </c>
-      <c r="G6" s="22">
-        <f>C6*E6</f>
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I7" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13">
+        <v>92</v>
+      </c>
+      <c r="C8" s="7">
+        <v>39.295999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>39.295999999999999</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="23">
-        <v>224</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D7" s="21">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2880</v>
+      </c>
+      <c r="C9" s="7">
+        <v>22.818999999999999</v>
+      </c>
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="22">
-        <f>C7*D7</f>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="22">
-        <f>C7*E7</f>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13">
+        <v>16005</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15.098000000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>15.098000000000001</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="18">
+        <v>156</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="18">
-        <v>92</v>
-      </c>
-      <c r="C8" s="10">
-        <v>39.295999999999999</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <f>C8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <f>C8*E8</f>
-        <v>39.295999999999999</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="18">
-        <v>2880</v>
-      </c>
-      <c r="C9" s="10">
-        <v>22.818999999999999</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <f>C9*D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <f>C9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="18">
-        <v>16005</v>
-      </c>
-      <c r="C10" s="10">
-        <v>15.098000000000001</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <f>C10*D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <f>C10*E10</f>
-        <v>15.098000000000001</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="23">
-        <v>156</v>
-      </c>
-      <c r="C11" s="20">
-        <v>2E-3</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>0</v>
-      </c>
-      <c r="F11" s="22">
-        <f>C11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="22">
-        <f>C11*E11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12">
         <f>SUM(F4:F11)</f>
         <v>1222.5166324000002</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <f>SUM(G4:G11)</f>
         <v>54.393999999999998</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
